--- a/SeleniumJava/Config/MainDriver.xlsx
+++ b/SeleniumJava/Config/MainDriver.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Selenium\Java\SeleniumJava\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jun11\git\SeleniumJava\SeleniumJava\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57E6B31-943B-4AF9-99B0-AA8ED8F6B44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D208E7C9-4686-42DB-97C6-C3DE8F389781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,10 +465,10 @@
       <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" t="n">
         <v>1.0</v>
       </c>
       <c r="F3" s="0" t="n">
